--- a/data/2_processed/0_texto(sinrep)_puntos3d.xlsx
+++ b/data/2_processed/0_texto(sinrep)_puntos3d.xlsx
@@ -568,13 +568,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>-0.9195802319</v>
+        <v>-0.9195802567</v>
       </c>
       <c r="D2">
-        <v>-0.8247947238000001</v>
+        <v>-0.8247945959</v>
       </c>
       <c r="E2">
-        <v>-0.4076249244</v>
+        <v>-0.4076600151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -585,13 +585,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>-1.1096275215</v>
+        <v>-1.1096275019</v>
       </c>
       <c r="D3">
-        <v>1.1763791427</v>
+        <v>1.1763790258</v>
       </c>
       <c r="E3">
-        <v>0.0334929654</v>
+        <v>0.0334460074</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -602,13 +602,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6.0457971217</v>
+        <v>6.0457970968</v>
       </c>
       <c r="D4">
-        <v>-0.5015633555</v>
+        <v>-0.5015633562</v>
       </c>
       <c r="E4">
-        <v>0.5455897169</v>
+        <v>0.5455648649</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -619,13 +619,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3.7627157678</v>
+        <v>3.7627158444</v>
       </c>
       <c r="D5">
-        <v>1.3384561645</v>
+        <v>1.3384561509</v>
       </c>
       <c r="E5">
-        <v>-0.4645547016</v>
+        <v>-0.4644365095</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>-2.3302254538</v>
+        <v>-2.3302255777</v>
       </c>
       <c r="D6">
-        <v>0.9288934487</v>
+        <v>0.9288937668</v>
       </c>
       <c r="E6">
-        <v>-0.3210636676</v>
+        <v>-0.3211204051</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -653,13 +653,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-2.3445360217</v>
+        <v>-2.3445360785</v>
       </c>
       <c r="D7">
-        <v>1.6121005695</v>
+        <v>1.6121007404</v>
       </c>
       <c r="E7">
-        <v>1.2773479979</v>
+        <v>1.2772599866</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -670,13 +670,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1.9759074139</v>
+        <v>1.9759074392</v>
       </c>
       <c r="D8">
-        <v>-2.4400154351</v>
+        <v>-2.4400153071</v>
       </c>
       <c r="E8">
-        <v>-0.3511604455</v>
+        <v>-0.3511021873</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -687,13 +687,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-1.3149816815</v>
+        <v>-1.3149816975</v>
       </c>
       <c r="D9">
-        <v>-0.4607527317</v>
+        <v>-0.4607526115</v>
       </c>
       <c r="E9">
-        <v>-0.3013370553</v>
+        <v>-0.3013273996</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -704,13 +704,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-1.8188428377</v>
+        <v>-1.8188428353</v>
       </c>
       <c r="D10">
-        <v>0.5060974765</v>
+        <v>0.5060974878</v>
       </c>
       <c r="E10">
-        <v>-0.709065516</v>
+        <v>-0.7090849366</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -721,13 +721,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>-0.1226495158</v>
+        <v>-0.1226494508</v>
       </c>
       <c r="D11">
-        <v>-4.2974407383</v>
+        <v>-4.2974407435</v>
       </c>
       <c r="E11">
-        <v>-0.4653324740000001</v>
+        <v>-0.4652046143</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -738,13 +738,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.5213528137</v>
+        <v>0.5213528584</v>
       </c>
       <c r="D12">
-        <v>-3.3310289353</v>
+        <v>-3.3310290297</v>
       </c>
       <c r="E12">
-        <v>-0.7143599900000001</v>
+        <v>-0.7142894498</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -755,13 +755,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.5262074920000001</v>
+        <v>0.5262074727</v>
       </c>
       <c r="D13">
-        <v>5.4550119926</v>
+        <v>5.4550120541</v>
       </c>
       <c r="E13">
-        <v>0.0646152594</v>
+        <v>0.06461975590000001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -772,13 +772,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>4.4030008648</v>
+        <v>4.4030008497</v>
       </c>
       <c r="D14">
-        <v>0.7579963430000001</v>
+        <v>0.7579961513</v>
       </c>
       <c r="E14">
-        <v>-0.7809211243</v>
+        <v>-0.7809873035</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -789,13 +789,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>-0.1972025599</v>
+        <v>-0.1972025169</v>
       </c>
       <c r="D15">
-        <v>3.2728712661</v>
+        <v>3.2728712906</v>
       </c>
       <c r="E15">
-        <v>0.1442852487</v>
+        <v>0.1443501961</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -806,13 +806,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>-2.3060006704</v>
+        <v>-2.3060006348</v>
       </c>
       <c r="D16">
-        <v>-0.5562224045</v>
+        <v>-0.5562225161000001</v>
       </c>
       <c r="E16">
-        <v>-2.1255884629</v>
+        <v>-2.1255565833</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -823,13 +823,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>1.4467308347</v>
+        <v>1.4467308248</v>
       </c>
       <c r="D17">
-        <v>0.2841141827</v>
+        <v>0.2841142506</v>
       </c>
       <c r="E17">
-        <v>-0.3250253179</v>
+        <v>-0.3250582183</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -840,13 +840,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>5.6346528377</v>
+        <v>5.6346528081</v>
       </c>
       <c r="D18">
-        <v>0.1996087039</v>
+        <v>0.1996087307</v>
       </c>
       <c r="E18">
-        <v>1.4244852349</v>
+        <v>1.4244382701</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -857,13 +857,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>-0.9409547882</v>
+        <v>-0.9409547836000001</v>
       </c>
       <c r="D19">
-        <v>-2.3835415908</v>
+        <v>-2.3835416118</v>
       </c>
       <c r="E19">
-        <v>-0.2281776849</v>
+        <v>-0.2281785926</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -874,13 +874,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>-0.8788946007</v>
+        <v>-0.8788946387000001</v>
       </c>
       <c r="D20">
-        <v>4.977044553</v>
+        <v>4.9770446228</v>
       </c>
       <c r="E20">
-        <v>0.4349298885</v>
+        <v>0.434900137</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -891,13 +891,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>-1.9330413039</v>
+        <v>-1.9330413247</v>
       </c>
       <c r="D21">
-        <v>-3.2331850607</v>
+        <v>-3.2331851548</v>
       </c>
       <c r="E21">
-        <v>-1.4050659761</v>
+        <v>-1.4050973381</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -908,13 +908,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>-1.7190471023</v>
+        <v>-1.7190471042</v>
       </c>
       <c r="D22">
-        <v>1.2510208239</v>
+        <v>1.2510207776</v>
       </c>
       <c r="E22">
-        <v>1.422017799</v>
+        <v>1.4219624676</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -925,13 +925,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>-1.4647927556</v>
+        <v>-1.4647927006</v>
       </c>
       <c r="D23">
-        <v>0.9737677858</v>
+        <v>0.9737676496000001</v>
       </c>
       <c r="E23">
-        <v>-0.4211169958</v>
+        <v>-0.4210952693</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -942,13 +942,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>-1.1017702379</v>
+        <v>-1.1017701938</v>
       </c>
       <c r="D24">
-        <v>2.3660199778</v>
+        <v>2.3660197862</v>
       </c>
       <c r="E24">
-        <v>-0.0960115099</v>
+        <v>-0.0959767658</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -959,13 +959,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>-2.3454745998</v>
+        <v>-2.3454745837</v>
       </c>
       <c r="D25">
-        <v>-1.2510681549</v>
+        <v>-1.2510681868</v>
       </c>
       <c r="E25">
-        <v>5.7775892179</v>
+        <v>5.7776082939</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1.0722424462</v>
+        <v>1.0722424099</v>
       </c>
       <c r="D38">
-        <v>0.1221523717</v>
+        <v>0.1221523693</v>
       </c>
       <c r="E38">
-        <v>-0.3752450816</v>
+        <v>-0.3753159075</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1083,13 +1083,13 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>-1.9415604155</v>
+        <v>-1.9415604278</v>
       </c>
       <c r="D39">
-        <v>-1.4317486547</v>
+        <v>-1.4317486278</v>
       </c>
       <c r="E39">
-        <v>-0.8169376981000001</v>
+        <v>-0.8169464793000001</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1097,13 +1097,13 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>-1.0278415207</v>
+        <v>-1.027841445</v>
       </c>
       <c r="D40">
-        <v>1.2680056848</v>
+        <v>1.268005379</v>
       </c>
       <c r="E40">
-        <v>-0.403484417</v>
+        <v>-0.4034611008</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1111,13 +1111,13 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>-2.1107475328</v>
+        <v>-2.1107475116</v>
       </c>
       <c r="D41">
-        <v>-2.1879442054</v>
+        <v>-2.187944262</v>
       </c>
       <c r="E41">
-        <v>4.3789066073</v>
+        <v>4.3789727721</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1125,13 +1125,13 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>-0.2494410115</v>
+        <v>-0.2494410623</v>
       </c>
       <c r="D42">
-        <v>-3.8728090274</v>
+        <v>-3.8728090586</v>
       </c>
       <c r="E42">
-        <v>-0.0453821739</v>
+        <v>-0.045519607</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1139,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="C43">
-        <v>0.6545960304</v>
+        <v>0.6545960310000001</v>
       </c>
       <c r="D43">
-        <v>2.0594398502</v>
+        <v>2.0594398684</v>
       </c>
       <c r="E43">
-        <v>-0.8552599497000001</v>
+        <v>-0.8552230542</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1153,13 +1153,13 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>5.6956895516</v>
+        <v>5.6956895591</v>
       </c>
       <c r="D44">
-        <v>-0.5375090034000001</v>
+        <v>-0.5375090114000001</v>
       </c>
       <c r="E44">
-        <v>1.17785253</v>
+        <v>1.1778547263</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>21</v>
       </c>
       <c r="C45">
-        <v>-0.9241749476000001</v>
+        <v>-0.9241749868</v>
       </c>
       <c r="D45">
-        <v>-1.5176465084</v>
+        <v>-1.5176463939</v>
       </c>
       <c r="E45">
-        <v>-2.3441144387</v>
+        <v>-2.3441600922</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1181,13 +1181,13 @@
         <v>22</v>
       </c>
       <c r="C46">
-        <v>-1.3172521586</v>
+        <v>-1.3172521644</v>
       </c>
       <c r="D46">
-        <v>0.7237916224000001</v>
+        <v>0.7237916897000001</v>
       </c>
       <c r="E46">
-        <v>-0.4756823021</v>
+        <v>-0.4756613241</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1195,13 +1195,13 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>-2.1984200871</v>
+        <v>-2.1984200811</v>
       </c>
       <c r="D47">
-        <v>-0.5458773113000001</v>
+        <v>-0.5458773965</v>
       </c>
       <c r="E47">
-        <v>-0.8187273258000001</v>
+        <v>-0.8187357253000001</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1209,13 +1209,13 @@
         <v>32</v>
       </c>
       <c r="C48">
-        <v>-0.8871831197000001</v>
+        <v>-0.8871830754000001</v>
       </c>
       <c r="D48">
-        <v>2.1572165355</v>
+        <v>2.1572165046</v>
       </c>
       <c r="E48">
-        <v>-1.0543658232</v>
+        <v>-1.0542508107</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1223,13 +1223,13 @@
         <v>33</v>
       </c>
       <c r="C49">
-        <v>1.7653495017</v>
+        <v>1.7653494398</v>
       </c>
       <c r="D49">
-        <v>-2.0568406539</v>
+        <v>-2.0568404327</v>
       </c>
       <c r="E49">
-        <v>-0.3755074095</v>
+        <v>-0.3755277885</v>
       </c>
     </row>
   </sheetData>
